--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna1-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna1-Epha5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,7 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Efna1</t>
@@ -528,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,78 +534,78 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.0012255</v>
+        <v>18.819997</v>
       </c>
       <c r="H2">
-        <v>60.00245099999999</v>
+        <v>37.639994</v>
       </c>
       <c r="I2">
-        <v>0.6105552840975591</v>
+        <v>0.922622403444</v>
       </c>
       <c r="J2">
-        <v>0.5155016483136245</v>
+        <v>0.8996825797928821</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.331827</v>
+        <v>0.006466</v>
       </c>
       <c r="N2">
-        <v>0.663654</v>
+        <v>0.012932</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.008493427970384656</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.008493427970384656</v>
       </c>
       <c r="Q2">
-        <v>9.955216653988499</v>
+        <v>0.121690100602</v>
       </c>
       <c r="R2">
-        <v>39.820866615954</v>
+        <v>0.4867604024080001</v>
       </c>
       <c r="S2">
-        <v>0.6105552840975591</v>
+        <v>0.007836226927514787</v>
       </c>
       <c r="T2">
-        <v>0.5155016483136245</v>
+        <v>0.00764138918768069</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.040222666666667</v>
+        <v>18.819997</v>
       </c>
       <c r="H3">
-        <v>3.120668</v>
+        <v>37.639994</v>
       </c>
       <c r="I3">
-        <v>0.02116958341489708</v>
+        <v>0.922622403444</v>
       </c>
       <c r="J3">
-        <v>0.02681072974568293</v>
+        <v>0.8996825797928821</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,122 +614,122 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.331827</v>
+        <v>0.7548284999999999</v>
       </c>
       <c r="N3">
-        <v>0.663654</v>
+        <v>1.509657</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9915065720296153</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9915065720296153</v>
       </c>
       <c r="Q3">
-        <v>0.345173966812</v>
+        <v>14.2058701055145</v>
       </c>
       <c r="R3">
-        <v>2.071043800872</v>
+        <v>56.823480422058</v>
       </c>
       <c r="S3">
-        <v>0.02116958341489708</v>
+        <v>0.9147861765164852</v>
       </c>
       <c r="T3">
-        <v>0.02681072974568293</v>
+        <v>0.8920411906052015</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1052186666666667</v>
+        <v>1.040222666666667</v>
       </c>
       <c r="H4">
-        <v>0.315656</v>
+        <v>3.120668</v>
       </c>
       <c r="I4">
-        <v>0.002141306291605756</v>
+        <v>0.05099537140398731</v>
       </c>
       <c r="J4">
-        <v>0.002711909023517814</v>
+        <v>0.07459115527268931</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.331827</v>
+        <v>0.006466</v>
       </c>
       <c r="N4">
-        <v>0.663654</v>
+        <v>0.012932</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.008493427970384656</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.008493427970384656</v>
       </c>
       <c r="Q4">
-        <v>0.034914394504</v>
+        <v>0.006726079762666668</v>
       </c>
       <c r="R4">
-        <v>0.209486367024</v>
+        <v>0.04035647857600001</v>
       </c>
       <c r="S4">
-        <v>0.002141306291605756</v>
+        <v>0.0004331255138427796</v>
       </c>
       <c r="T4">
-        <v>0.002711909023517814</v>
+        <v>0.0006335346045363643</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.01536</v>
+        <v>1.040222666666667</v>
       </c>
       <c r="H5">
-        <v>2.03072</v>
+        <v>3.120668</v>
       </c>
       <c r="I5">
-        <v>0.02066360300052735</v>
+        <v>0.05099537140398731</v>
       </c>
       <c r="J5">
-        <v>0.01744661242693976</v>
+        <v>0.07459115527268931</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,122 +738,122 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.331827</v>
+        <v>0.7548284999999999</v>
       </c>
       <c r="N5">
-        <v>0.663654</v>
+        <v>1.509657</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9915065720296153</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9915065720296153</v>
       </c>
       <c r="Q5">
-        <v>0.33692386272</v>
+        <v>0.785189715146</v>
       </c>
       <c r="R5">
-        <v>1.34769545088</v>
+        <v>4.711138290876</v>
       </c>
       <c r="S5">
-        <v>0.02066360300052735</v>
+        <v>0.05056224589014453</v>
       </c>
       <c r="T5">
-        <v>0.01744661242693976</v>
+        <v>0.07395762066815294</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.833521</v>
+        <v>0.5381545</v>
       </c>
       <c r="H6">
-        <v>50.500563</v>
+        <v>1.076309</v>
       </c>
       <c r="I6">
-        <v>0.3425791788577846</v>
+        <v>0.02638222515201273</v>
       </c>
       <c r="J6">
-        <v>0.4338676676268782</v>
+        <v>0.02572626493442845</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.331827</v>
+        <v>0.006466</v>
       </c>
       <c r="N6">
-        <v>0.663654</v>
+        <v>0.012932</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.008493427970384656</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.008493427970384656</v>
       </c>
       <c r="Q6">
-        <v>5.585816772867</v>
+        <v>0.003479706997</v>
       </c>
       <c r="R6">
-        <v>33.514900637202</v>
+        <v>0.013918827988</v>
       </c>
       <c r="S6">
-        <v>0.3425791788577846</v>
+        <v>0.0002240755290270905</v>
       </c>
       <c r="T6">
-        <v>0.4338676676268782</v>
+        <v>0.0002185041781676006</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.142059</v>
+        <v>0.5381545</v>
       </c>
       <c r="H7">
-        <v>0.426177</v>
+        <v>1.076309</v>
       </c>
       <c r="I7">
-        <v>0.00289104433762598</v>
+        <v>0.02638222515201273</v>
       </c>
       <c r="J7">
-        <v>0.003661432863356792</v>
+        <v>0.02572626493442845</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.331827</v>
+        <v>0.7548284999999999</v>
       </c>
       <c r="N7">
-        <v>0.663654</v>
+        <v>1.509657</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.9915065720296153</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.9915065720296153</v>
       </c>
       <c r="Q7">
-        <v>0.047139011793</v>
+        <v>0.40621435400325</v>
       </c>
       <c r="R7">
-        <v>0.282834070758</v>
+        <v>1.624857416013</v>
       </c>
       <c r="S7">
-        <v>0.00289104433762598</v>
+        <v>0.02615814962298564</v>
       </c>
       <c r="T7">
-        <v>0.003661432863356792</v>
+        <v>0.02550776075626085</v>
       </c>
     </row>
   </sheetData>
